--- a/data/pca/factorExposure/factorExposure_2018-04-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-04-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01194925406273572</v>
+        <v>0.01737526481318954</v>
       </c>
       <c r="C2">
-        <v>-0.02616492334153334</v>
+        <v>-0.0184386932247539</v>
       </c>
       <c r="D2">
-        <v>0.03432519703192258</v>
+        <v>-0.03050885487575824</v>
       </c>
       <c r="E2">
-        <v>-0.003363159218287276</v>
+        <v>0.01961872969927428</v>
       </c>
       <c r="F2">
-        <v>0.1062624600584702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.0009304137555205679</v>
+      </c>
+      <c r="G2">
+        <v>-0.03730206320373976</v>
+      </c>
+      <c r="H2">
+        <v>-0.05009793839472272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.09445902389154059</v>
+        <v>0.07230068488565465</v>
       </c>
       <c r="C3">
-        <v>-0.04073667795125735</v>
+        <v>0.01140942970649027</v>
       </c>
       <c r="D3">
-        <v>0.03668333134732591</v>
+        <v>-0.07955124612518176</v>
       </c>
       <c r="E3">
-        <v>0.02799832824446991</v>
+        <v>0.00658319437484961</v>
       </c>
       <c r="F3">
-        <v>0.3582723140823346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.02059638558623214</v>
+      </c>
+      <c r="G3">
+        <v>-0.1551428947448495</v>
+      </c>
+      <c r="H3">
+        <v>-0.1293449223624437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0439255813939572</v>
+        <v>0.03812325852332409</v>
       </c>
       <c r="C4">
-        <v>-0.01155638701992208</v>
+        <v>-0.006167093347857959</v>
       </c>
       <c r="D4">
-        <v>0.03553635307479779</v>
+        <v>-0.06391282345332977</v>
       </c>
       <c r="E4">
-        <v>-0.03621215387177455</v>
+        <v>-0.01628536357752698</v>
       </c>
       <c r="F4">
-        <v>0.06133910943523042</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.03714505889849035</v>
+      </c>
+      <c r="G4">
+        <v>-0.04296721368096926</v>
+      </c>
+      <c r="H4">
+        <v>-0.05963960576087236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03191557802127047</v>
+        <v>0.02256372492347696</v>
       </c>
       <c r="C6">
-        <v>-0.009136595080747757</v>
+        <v>-0.001735812113047805</v>
       </c>
       <c r="D6">
-        <v>0.03051707480384066</v>
+        <v>-0.06428619228799738</v>
       </c>
       <c r="E6">
-        <v>-0.0251220190801636</v>
+        <v>-0.00606600093847424</v>
       </c>
       <c r="F6">
-        <v>0.008015309475884327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03161644072863531</v>
+      </c>
+      <c r="G6">
+        <v>-0.01462505625485236</v>
+      </c>
+      <c r="H6">
+        <v>-0.06093298817543052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03480771477902042</v>
+        <v>0.01048333029400213</v>
       </c>
       <c r="C7">
-        <v>0.03006130189272222</v>
+        <v>-0.004361670689548527</v>
       </c>
       <c r="D7">
-        <v>0.03494290200768337</v>
+        <v>-0.03590908223419832</v>
       </c>
       <c r="E7">
-        <v>-0.02343740511411855</v>
+        <v>-0.04326550949260636</v>
       </c>
       <c r="F7">
-        <v>0.03850542318607161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.001608209595200742</v>
+      </c>
+      <c r="G7">
+        <v>-0.02211467881032338</v>
+      </c>
+      <c r="H7">
+        <v>-0.03928730114640477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01543563901606016</v>
+        <v>0.002012542494107436</v>
       </c>
       <c r="C8">
-        <v>-0.0007951876027192815</v>
+        <v>0.001249342407412975</v>
       </c>
       <c r="D8">
-        <v>0.04506250783185348</v>
+        <v>-0.01456486097201474</v>
       </c>
       <c r="E8">
-        <v>-0.03102103831332683</v>
+        <v>-0.008993853680299287</v>
       </c>
       <c r="F8">
-        <v>0.06460509052499394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.0111011373715756</v>
+      </c>
+      <c r="G8">
+        <v>-0.03796182962711916</v>
+      </c>
+      <c r="H8">
+        <v>-0.03638060117888937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03254342072530193</v>
+        <v>0.03053037113619453</v>
       </c>
       <c r="C9">
-        <v>-0.008322546816505924</v>
+        <v>-0.002464862054285089</v>
       </c>
       <c r="D9">
-        <v>0.03960187447879005</v>
+        <v>-0.04619169979069813</v>
       </c>
       <c r="E9">
-        <v>-0.02538259794298272</v>
+        <v>-0.005710783032972401</v>
       </c>
       <c r="F9">
-        <v>0.08032461825533835</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01350009577814069</v>
+      </c>
+      <c r="G9">
+        <v>-0.04373583547908007</v>
+      </c>
+      <c r="H9">
+        <v>-0.06035497952714107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04204538171982868</v>
+        <v>0.1281774776426731</v>
       </c>
       <c r="C10">
-        <v>-6.140940153978981e-06</v>
+        <v>0.003145385676723855</v>
       </c>
       <c r="D10">
-        <v>-0.1369477364251469</v>
+        <v>0.1575120663115438</v>
       </c>
       <c r="E10">
-        <v>0.07302033331335742</v>
+        <v>0.001252337172173816</v>
       </c>
       <c r="F10">
-        <v>0.06633157882266708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04115972445588851</v>
+      </c>
+      <c r="G10">
+        <v>-0.02888380353206828</v>
+      </c>
+      <c r="H10">
+        <v>-3.02645402422809e-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03029314810484672</v>
+        <v>0.01825962616319923</v>
       </c>
       <c r="C11">
-        <v>-0.01941829361861223</v>
+        <v>0.009742276789798191</v>
       </c>
       <c r="D11">
-        <v>0.03473212202101841</v>
+        <v>-0.04961106782923046</v>
       </c>
       <c r="E11">
-        <v>-0.02169154818659366</v>
+        <v>0.001255697177104588</v>
       </c>
       <c r="F11">
-        <v>0.02609916249707367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.01046024131948507</v>
+      </c>
+      <c r="G11">
+        <v>-0.02025515287436921</v>
+      </c>
+      <c r="H11">
+        <v>-0.05284963305235951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04143138896960973</v>
+        <v>0.0221860484006104</v>
       </c>
       <c r="C12">
-        <v>-0.01736968823578231</v>
+        <v>0.005935612778175083</v>
       </c>
       <c r="D12">
-        <v>0.02929195167031342</v>
+        <v>-0.04837764349756965</v>
       </c>
       <c r="E12">
-        <v>-0.03065718469609274</v>
+        <v>-0.011450453594217</v>
       </c>
       <c r="F12">
-        <v>0.001969892035486616</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.0136295125109969</v>
+      </c>
+      <c r="G12">
+        <v>-0.004840788114996356</v>
+      </c>
+      <c r="H12">
+        <v>-0.02240184314254457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01133730666254972</v>
+        <v>0.02349133250042721</v>
       </c>
       <c r="C13">
-        <v>-0.01988520484728717</v>
+        <v>-0.01454451339858035</v>
       </c>
       <c r="D13">
-        <v>0.01270569413700756</v>
+        <v>-0.02536625762515385</v>
       </c>
       <c r="E13">
-        <v>-0.01230377839543036</v>
+        <v>0.012688348969322</v>
       </c>
       <c r="F13">
-        <v>0.07842227096411238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.01671802138536105</v>
+      </c>
+      <c r="G13">
+        <v>-0.05659358347428307</v>
+      </c>
+      <c r="H13">
+        <v>-0.08057305070767366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01988748358161696</v>
+        <v>0.01227082043103769</v>
       </c>
       <c r="C14">
-        <v>0.003974315719579065</v>
+        <v>-0.002203779890728206</v>
       </c>
       <c r="D14">
-        <v>0.01989734779061151</v>
+        <v>-0.01753606921970931</v>
       </c>
       <c r="E14">
-        <v>-0.02328743482057715</v>
+        <v>-0.01356548398693648</v>
       </c>
       <c r="F14">
-        <v>0.05207223285524531</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.006703515262447348</v>
+      </c>
+      <c r="G14">
+        <v>-0.03990873192435287</v>
+      </c>
+      <c r="H14">
+        <v>-0.01451301328655239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03133557021817389</v>
+        <v>0.01956731295881045</v>
       </c>
       <c r="C16">
-        <v>-0.01919528189997785</v>
+        <v>0.00913788183678339</v>
       </c>
       <c r="D16">
-        <v>0.03830407098975094</v>
+        <v>-0.04187194226775959</v>
       </c>
       <c r="E16">
-        <v>-0.02503606034317559</v>
+        <v>-0.002464584502426539</v>
       </c>
       <c r="F16">
-        <v>0.02726303622785022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01221595825574497</v>
+      </c>
+      <c r="G16">
+        <v>-0.01910906170722413</v>
+      </c>
+      <c r="H16">
+        <v>-0.03913987817056074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03437072845152507</v>
+        <v>0.02056712046419307</v>
       </c>
       <c r="C19">
-        <v>-0.01588029800379085</v>
+        <v>-0.00176138680488939</v>
       </c>
       <c r="D19">
-        <v>0.0450177030588706</v>
+        <v>-0.04820912555240933</v>
       </c>
       <c r="E19">
-        <v>-0.04076471118424629</v>
+        <v>-0.01028095482911036</v>
       </c>
       <c r="F19">
-        <v>0.08068610043933108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.02072635388217999</v>
+      </c>
+      <c r="G19">
+        <v>-0.05714758650734857</v>
+      </c>
+      <c r="H19">
+        <v>-0.05561187468504677</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.00207804915246278</v>
+        <v>0.006210829485341991</v>
       </c>
       <c r="C20">
-        <v>0.006739285058093598</v>
+        <v>-0.006063735110325967</v>
       </c>
       <c r="D20">
-        <v>0.006363832503807602</v>
+        <v>-0.02308714428254347</v>
       </c>
       <c r="E20">
-        <v>-0.01629440010447857</v>
+        <v>-0.003830058489255251</v>
       </c>
       <c r="F20">
-        <v>0.06363787290452193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.007681983383630971</v>
+      </c>
+      <c r="G20">
+        <v>-0.05023516480670117</v>
+      </c>
+      <c r="H20">
+        <v>-0.03104650716799682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01386079349499937</v>
+        <v>0.0118304004396818</v>
       </c>
       <c r="C21">
-        <v>0.01669806584538606</v>
+        <v>-0.007555185492016575</v>
       </c>
       <c r="D21">
-        <v>0.03692664621526458</v>
+        <v>-0.02667726505870061</v>
       </c>
       <c r="E21">
-        <v>-0.005880226754527395</v>
+        <v>-0.01713297261851007</v>
       </c>
       <c r="F21">
-        <v>0.02774024938427184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.0007075806855890479</v>
+      </c>
+      <c r="G21">
+        <v>-0.04296142849812917</v>
+      </c>
+      <c r="H21">
+        <v>-0.04717440987325706</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02893018726685134</v>
+        <v>0.01446741014161858</v>
       </c>
       <c r="C24">
-        <v>-0.01744168862471806</v>
+        <v>0.003802145981280367</v>
       </c>
       <c r="D24">
-        <v>0.01994285725208236</v>
+        <v>-0.04398424571224891</v>
       </c>
       <c r="E24">
-        <v>-0.01853904857464901</v>
+        <v>-0.0008655358284677023</v>
       </c>
       <c r="F24">
-        <v>0.03060305959753678</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.008519651069745511</v>
+      </c>
+      <c r="G24">
+        <v>-0.0144728233497061</v>
+      </c>
+      <c r="H24">
+        <v>-0.04689809997684283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03313516434475793</v>
+        <v>0.02845921283298061</v>
       </c>
       <c r="C25">
-        <v>-0.01575443970876176</v>
+        <v>0.001791137010342292</v>
       </c>
       <c r="D25">
-        <v>0.03291396894209479</v>
+        <v>-0.04776327280374442</v>
       </c>
       <c r="E25">
-        <v>-0.01761351937469623</v>
+        <v>-0.006929211952475627</v>
       </c>
       <c r="F25">
-        <v>0.03269650653079929</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01755270649101252</v>
+      </c>
+      <c r="G25">
+        <v>-0.01644928704335374</v>
+      </c>
+      <c r="H25">
+        <v>-0.04719053594086441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01797841043539378</v>
+        <v>0.01319956166025318</v>
       </c>
       <c r="C26">
-        <v>-0.01046419089712911</v>
+        <v>-0.01944076863265144</v>
       </c>
       <c r="D26">
-        <v>0.02363192172698871</v>
+        <v>-0.01095919199725063</v>
       </c>
       <c r="E26">
-        <v>-0.0008056921974651109</v>
+        <v>0.0001176571701234664</v>
       </c>
       <c r="F26">
-        <v>0.05081359385837032</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.001519504365410082</v>
+      </c>
+      <c r="G26">
+        <v>-0.0245584924814526</v>
+      </c>
+      <c r="H26">
+        <v>-0.02314981872427042</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.04173740253226962</v>
+        <v>0.01638550745092718</v>
       </c>
       <c r="C27">
-        <v>-0.01859252640198248</v>
+        <v>0.005653401261769127</v>
       </c>
       <c r="D27">
-        <v>0.006105616076219317</v>
+        <v>-0.01513536700712939</v>
       </c>
       <c r="E27">
-        <v>-0.03490502325362967</v>
+        <v>-0.004662585049132304</v>
       </c>
       <c r="F27">
-        <v>0.02050666077114334</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.0075136073279287</v>
+      </c>
+      <c r="G27">
+        <v>-0.008578218470532252</v>
+      </c>
+      <c r="H27">
+        <v>-0.0002720344045999535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07401058855416283</v>
+        <v>0.17454412385969</v>
       </c>
       <c r="C28">
-        <v>-0.001952788194174698</v>
+        <v>-0.007340877775229738</v>
       </c>
       <c r="D28">
-        <v>-0.1927979286746756</v>
+        <v>0.198448344766926</v>
       </c>
       <c r="E28">
-        <v>0.109840900112787</v>
+        <v>-0.009572969654690771</v>
       </c>
       <c r="F28">
-        <v>0.06478098092985209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.03900397341918484</v>
+      </c>
+      <c r="G28">
+        <v>-0.01868290751387219</v>
+      </c>
+      <c r="H28">
+        <v>0.007885557848594071</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02198469156738125</v>
+        <v>0.01735380148284778</v>
       </c>
       <c r="C29">
-        <v>0.002579125389264963</v>
+        <v>-0.0008484382185233179</v>
       </c>
       <c r="D29">
-        <v>0.02198697093777644</v>
+        <v>-0.01773444930170261</v>
       </c>
       <c r="E29">
-        <v>-0.02376086228857071</v>
+        <v>-0.01244034069444337</v>
       </c>
       <c r="F29">
-        <v>0.04902072229012749</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.007201484448873914</v>
+      </c>
+      <c r="G29">
+        <v>-0.03968439930677907</v>
+      </c>
+      <c r="H29">
+        <v>-0.009601828762500002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.05413628047213826</v>
+        <v>0.04065214341792642</v>
       </c>
       <c r="C30">
-        <v>-0.06757469814630829</v>
+        <v>-0.004531194870486323</v>
       </c>
       <c r="D30">
-        <v>0.05416391666142067</v>
+        <v>-0.09339343890026926</v>
       </c>
       <c r="E30">
-        <v>-0.04720037537071201</v>
+        <v>0.03075772184804542</v>
       </c>
       <c r="F30">
-        <v>0.08090849153082461</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.03877253363831115</v>
+      </c>
+      <c r="G30">
+        <v>-0.05645007377641695</v>
+      </c>
+      <c r="H30">
+        <v>-0.07795557748725171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0571388928335316</v>
+        <v>0.04643132958646363</v>
       </c>
       <c r="C31">
-        <v>-0.03365922953966444</v>
+        <v>0.008037325084073852</v>
       </c>
       <c r="D31">
-        <v>0.02092514329759939</v>
+        <v>-0.03133350292234711</v>
       </c>
       <c r="E31">
-        <v>-0.02138178199766633</v>
+        <v>0.002535050830503845</v>
       </c>
       <c r="F31">
-        <v>0.03285062502660897</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.001126578455311872</v>
+      </c>
+      <c r="G31">
+        <v>-0.01795860734421312</v>
+      </c>
+      <c r="H31">
+        <v>-0.005942942231292168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02247446451863761</v>
+        <v>0.009178027491175458</v>
       </c>
       <c r="C32">
-        <v>0.01487910438982306</v>
+        <v>0.01259693882803294</v>
       </c>
       <c r="D32">
-        <v>0.05687228764898789</v>
+        <v>-0.01410285955164577</v>
       </c>
       <c r="E32">
-        <v>-0.04439156573014586</v>
+        <v>-0.02985748458543894</v>
       </c>
       <c r="F32">
-        <v>0.04514862075551219</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.03201570819193256</v>
+      </c>
+      <c r="G32">
+        <v>-0.04183617524595531</v>
+      </c>
+      <c r="H32">
+        <v>-0.0491249011107199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03414191607685543</v>
+        <v>0.02561753590206532</v>
       </c>
       <c r="C33">
-        <v>-0.0403828180839908</v>
+        <v>-0.001392337954863918</v>
       </c>
       <c r="D33">
-        <v>0.05377243819628804</v>
+        <v>-0.04770617783697537</v>
       </c>
       <c r="E33">
-        <v>-0.009705004521602219</v>
+        <v>0.01979401901347286</v>
       </c>
       <c r="F33">
-        <v>0.06052621917896458</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.004336826565908287</v>
+      </c>
+      <c r="G33">
+        <v>-0.03990773740637651</v>
+      </c>
+      <c r="H33">
+        <v>-0.05600371158301327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03503054538045819</v>
+        <v>0.02673879626772801</v>
       </c>
       <c r="C34">
-        <v>-0.0111041534784486</v>
+        <v>0.01802251092714644</v>
       </c>
       <c r="D34">
-        <v>0.03740701238684444</v>
+        <v>-0.04665190045341586</v>
       </c>
       <c r="E34">
-        <v>-0.03544230109957421</v>
+        <v>-0.01422770426539067</v>
       </c>
       <c r="F34">
-        <v>0.03012497614241449</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.0185659366036316</v>
+      </c>
+      <c r="G34">
+        <v>-0.008964673606960596</v>
+      </c>
+      <c r="H34">
+        <v>-0.03964176689452319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01708625267783988</v>
+        <v>0.01611593547045574</v>
       </c>
       <c r="C36">
-        <v>0.001163898438733567</v>
+        <v>-0.007034701317198103</v>
       </c>
       <c r="D36">
-        <v>0.01459383377089346</v>
+        <v>-0.006989410249722103</v>
       </c>
       <c r="E36">
-        <v>-0.01068470807962815</v>
+        <v>-0.00773849396245345</v>
       </c>
       <c r="F36">
-        <v>0.02819662520646972</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.0007576191356084265</v>
+      </c>
+      <c r="G36">
+        <v>-0.01750966729578559</v>
+      </c>
+      <c r="H36">
+        <v>-0.018982209098029</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.009361740173423228</v>
+        <v>0.02734097808425445</v>
       </c>
       <c r="C38">
-        <v>-0.005356855150710533</v>
+        <v>0.01466106244906831</v>
       </c>
       <c r="D38">
-        <v>0.001252538746080123</v>
+        <v>-0.01357980718700248</v>
       </c>
       <c r="E38">
-        <v>0.02211147197058453</v>
+        <v>-9.664723012137389e-05</v>
       </c>
       <c r="F38">
-        <v>0.04028487481509877</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.006717399447467693</v>
+      </c>
+      <c r="G38">
+        <v>-0.02153466002616303</v>
+      </c>
+      <c r="H38">
+        <v>-0.04088233882367987</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02860515090578517</v>
+        <v>0.01031168993545088</v>
       </c>
       <c r="C39">
-        <v>-0.01860430263469205</v>
+        <v>0.005788218719957609</v>
       </c>
       <c r="D39">
-        <v>0.05762466276526044</v>
+        <v>-0.08931946389665235</v>
       </c>
       <c r="E39">
-        <v>-0.02880982582517069</v>
+        <v>0.005910018482469074</v>
       </c>
       <c r="F39">
-        <v>0.04539557363487528</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01547795022641035</v>
+      </c>
+      <c r="G39">
+        <v>-0.03134977186198889</v>
+      </c>
+      <c r="H39">
+        <v>-0.08178128869943413</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02111957938058606</v>
+        <v>0.02676384254440385</v>
       </c>
       <c r="C40">
-        <v>-0.04724650644608139</v>
+        <v>-0.0004689028979428541</v>
       </c>
       <c r="D40">
-        <v>0.02002852503234323</v>
+        <v>-0.03574844430404554</v>
       </c>
       <c r="E40">
-        <v>-0.03371576578604935</v>
+        <v>0.02311588294709734</v>
       </c>
       <c r="F40">
-        <v>0.04934647317110172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03456094000540717</v>
+      </c>
+      <c r="G40">
+        <v>-0.0169774327939326</v>
+      </c>
+      <c r="H40">
+        <v>-0.06749663925890138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005093312971854924</v>
+        <v>0.01312577087239301</v>
       </c>
       <c r="C41">
-        <v>0.001021284285060094</v>
+        <v>-0.003019491161606359</v>
       </c>
       <c r="D41">
-        <v>0.01092099678464516</v>
+        <v>0.01182411538185798</v>
       </c>
       <c r="E41">
-        <v>0.009625520154041721</v>
+        <v>-0.00341018532661133</v>
       </c>
       <c r="F41">
-        <v>0.00584965077952754</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.006807432788282743</v>
+      </c>
+      <c r="G41">
+        <v>0.001426075570371073</v>
+      </c>
+      <c r="H41">
+        <v>0.0001889972338998466</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.252118221182011</v>
+        <v>0.1291431267689822</v>
       </c>
       <c r="C42">
-        <v>-0.1925160129468318</v>
+        <v>-0.08062457908823656</v>
       </c>
       <c r="D42">
-        <v>0.3517066880827925</v>
+        <v>-0.2409205373529778</v>
       </c>
       <c r="E42">
-        <v>0.8116090016300695</v>
+        <v>0.224797513553717</v>
       </c>
       <c r="F42">
-        <v>-0.2590288777110695</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8520363543445149</v>
+      </c>
+      <c r="G42">
+        <v>0.3464524197318238</v>
+      </c>
+      <c r="H42">
+        <v>-0.03990142966774541</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.003554740773487088</v>
+        <v>0.01343742803298556</v>
       </c>
       <c r="C43">
-        <v>-0.002087290256378834</v>
+        <v>-0.003379693011467393</v>
       </c>
       <c r="D43">
-        <v>0.01332277206755938</v>
+        <v>0.008347145325256704</v>
       </c>
       <c r="E43">
-        <v>0.003022031598685201</v>
+        <v>-2.632513877920271e-05</v>
       </c>
       <c r="F43">
-        <v>0.02400324103737722</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.005195844602800721</v>
+      </c>
+      <c r="G43">
+        <v>-0.0008162533949543615</v>
+      </c>
+      <c r="H43">
+        <v>-0.007673138211759347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02262017215726794</v>
+        <v>0.01449715948515419</v>
       </c>
       <c r="C44">
-        <v>0.005560181379570506</v>
+        <v>0.004496562858682677</v>
       </c>
       <c r="D44">
-        <v>0.04144146204079974</v>
+        <v>-0.04256020231894168</v>
       </c>
       <c r="E44">
-        <v>-0.006574171692257693</v>
+        <v>-0.01355092391160756</v>
       </c>
       <c r="F44">
-        <v>0.09536242532014481</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.006504328506638861</v>
+      </c>
+      <c r="G44">
+        <v>-0.0401601513833383</v>
+      </c>
+      <c r="H44">
+        <v>-0.06302366782653512</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01943245661578505</v>
+        <v>0.009313784191597976</v>
       </c>
       <c r="C46">
-        <v>-0.007830425954686712</v>
+        <v>-0.006679807023218118</v>
       </c>
       <c r="D46">
-        <v>0.04289304006217514</v>
+        <v>-0.01605257873025327</v>
       </c>
       <c r="E46">
-        <v>-0.02105068242448246</v>
+        <v>-0.001271528274664364</v>
       </c>
       <c r="F46">
-        <v>0.06020764247159237</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.001359732180667723</v>
+      </c>
+      <c r="G46">
+        <v>-0.0415540157065161</v>
+      </c>
+      <c r="H46">
+        <v>-0.01193716808092709</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0860883788826204</v>
+        <v>0.06402306615320494</v>
       </c>
       <c r="C47">
-        <v>-0.0432354399479502</v>
+        <v>0.02246101987412432</v>
       </c>
       <c r="D47">
-        <v>0.01236423753259168</v>
+        <v>-0.05833164204064126</v>
       </c>
       <c r="E47">
-        <v>-0.02937263152183798</v>
+        <v>-0.005689032830481057</v>
       </c>
       <c r="F47">
-        <v>0.0094371706149301</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.00868742970088456</v>
+      </c>
+      <c r="G47">
+        <v>0.004074806031282084</v>
+      </c>
+      <c r="H47">
+        <v>0.02523183761291322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0183140647668951</v>
+        <v>0.01830960291326155</v>
       </c>
       <c r="C48">
-        <v>-0.009592613201865705</v>
+        <v>0.004124255219955268</v>
       </c>
       <c r="D48">
-        <v>0.02129900146616894</v>
+        <v>-0.01524415371603284</v>
       </c>
       <c r="E48">
-        <v>-0.01193696701524412</v>
+        <v>-0.001011193195280737</v>
       </c>
       <c r="F48">
-        <v>0.0336093765555468</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.004317303916399249</v>
+      </c>
+      <c r="G48">
+        <v>-0.01778095861132272</v>
+      </c>
+      <c r="H48">
+        <v>-0.02198038567547221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08550900148542503</v>
+        <v>0.06699713725000869</v>
       </c>
       <c r="C50">
-        <v>-0.0256109107137772</v>
+        <v>0.02030797865165396</v>
       </c>
       <c r="D50">
-        <v>0.03487795987002789</v>
+        <v>-0.05462199864987417</v>
       </c>
       <c r="E50">
-        <v>-0.02533594571667958</v>
+        <v>-0.01712404526132155</v>
       </c>
       <c r="F50">
-        <v>0.02088560489695451</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.002971887619809824</v>
+      </c>
+      <c r="G50">
+        <v>-0.006673117855349211</v>
+      </c>
+      <c r="H50">
+        <v>0.01292002832923844</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01937185509485496</v>
+        <v>0.01594635261730892</v>
       </c>
       <c r="C51">
-        <v>-0.003176219338200907</v>
+        <v>-0.002146289963201577</v>
       </c>
       <c r="D51">
-        <v>0.001886000764588869</v>
+        <v>-0.01157034342892315</v>
       </c>
       <c r="E51">
-        <v>-0.002006991870441613</v>
+        <v>-0.008133024791479666</v>
       </c>
       <c r="F51">
-        <v>0.08578716212489221</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.0007830307083941043</v>
+      </c>
+      <c r="G51">
+        <v>-0.03394064873065916</v>
+      </c>
+      <c r="H51">
+        <v>-0.04549653732331072</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09372875984295893</v>
+        <v>0.08261371422675745</v>
       </c>
       <c r="C53">
-        <v>-0.04617074964293773</v>
+        <v>0.0301215632243987</v>
       </c>
       <c r="D53">
-        <v>0.02668227406508562</v>
+        <v>-0.0949590097755592</v>
       </c>
       <c r="E53">
-        <v>-0.04399721592213507</v>
+        <v>-0.01088807824497991</v>
       </c>
       <c r="F53">
-        <v>-0.03860168180842447</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.03078541453612213</v>
+      </c>
+      <c r="G53">
+        <v>0.02954152592064449</v>
+      </c>
+      <c r="H53">
+        <v>0.02903527407101023</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02265211286754098</v>
+        <v>0.02607398687423358</v>
       </c>
       <c r="C54">
-        <v>6.618655214668913e-05</v>
+        <v>0.006274471919364006</v>
       </c>
       <c r="D54">
-        <v>0.007240407480867145</v>
+        <v>0.009413449605045575</v>
       </c>
       <c r="E54">
-        <v>-0.01292315640051133</v>
+        <v>-0.005963107660269897</v>
       </c>
       <c r="F54">
-        <v>0.0324085948131184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.004718537117268683</v>
+      </c>
+      <c r="G54">
+        <v>-0.0377466525813145</v>
+      </c>
+      <c r="H54">
+        <v>-0.006414496832308937</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08890219911797205</v>
+        <v>0.06479401403515339</v>
       </c>
       <c r="C55">
-        <v>-0.04108205587757918</v>
+        <v>0.02617074685321399</v>
       </c>
       <c r="D55">
-        <v>0.03904876625622036</v>
+        <v>-0.08697457614131746</v>
       </c>
       <c r="E55">
-        <v>-0.03708695760281993</v>
+        <v>-0.009500399846399587</v>
       </c>
       <c r="F55">
-        <v>-0.03816810018002912</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01844827265831718</v>
+      </c>
+      <c r="G55">
+        <v>0.01173983998401711</v>
+      </c>
+      <c r="H55">
+        <v>0.03775253379905235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.133058882051952</v>
+        <v>0.1102247803495065</v>
       </c>
       <c r="C56">
-        <v>-0.070709536285038</v>
+        <v>0.04454899073953023</v>
       </c>
       <c r="D56">
-        <v>0.007827773351318465</v>
+        <v>-0.1172183055211829</v>
       </c>
       <c r="E56">
-        <v>-0.08148860229541138</v>
+        <v>-0.01026986164705288</v>
       </c>
       <c r="F56">
-        <v>-0.07238675070742917</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.05493788473947091</v>
+      </c>
+      <c r="G56">
+        <v>0.05582272630375187</v>
+      </c>
+      <c r="H56">
+        <v>0.06563186200889801</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04074820335895903</v>
+        <v>0.02983670029430778</v>
       </c>
       <c r="C57">
-        <v>-0.02995049622555276</v>
+        <v>-0.01434709606859141</v>
       </c>
       <c r="D57">
-        <v>0.0252041921285803</v>
+        <v>-0.03739681546010288</v>
       </c>
       <c r="E57">
-        <v>0.004636379344975731</v>
+        <v>0.009852818453713384</v>
       </c>
       <c r="F57">
-        <v>0.05152433412831637</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.003738658330885792</v>
+      </c>
+      <c r="G57">
+        <v>-0.0658125320574881</v>
+      </c>
+      <c r="H57">
+        <v>-0.05501606616659365</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1558572013835157</v>
+        <v>0.11472989817528</v>
       </c>
       <c r="C58">
-        <v>-0.1881094391313388</v>
+        <v>0.03375097223640871</v>
       </c>
       <c r="D58">
-        <v>0.2067520130157494</v>
+        <v>-0.1743955170085524</v>
       </c>
       <c r="E58">
-        <v>-0.04401720386490555</v>
+        <v>0.279721765298911</v>
       </c>
       <c r="F58">
-        <v>0.5250427481058018</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2092764287525788</v>
+      </c>
+      <c r="G58">
+        <v>-0.7991266891916909</v>
+      </c>
+      <c r="H58">
+        <v>0.3474806360190419</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05717244669715045</v>
+        <v>0.189704210486873</v>
       </c>
       <c r="C59">
-        <v>-0.02435909487542282</v>
+        <v>0.001654737556435044</v>
       </c>
       <c r="D59">
-        <v>-0.1715249246857737</v>
+        <v>0.195811251727908</v>
       </c>
       <c r="E59">
-        <v>0.06276024436954138</v>
+        <v>0.008580942958865467</v>
       </c>
       <c r="F59">
-        <v>0.08856910234760781</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.004738381002081671</v>
+      </c>
+      <c r="G59">
+        <v>-0.01923409755478104</v>
+      </c>
+      <c r="H59">
+        <v>-0.02500178576164379</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1412493169817602</v>
+        <v>0.2056789323490927</v>
       </c>
       <c r="C60">
-        <v>-0.1034941173573795</v>
+        <v>0.0218624727340417</v>
       </c>
       <c r="D60">
-        <v>0.007287877098210734</v>
+        <v>-0.04219685741875212</v>
       </c>
       <c r="E60">
-        <v>0.01604107068839511</v>
+        <v>0.05072265016369737</v>
       </c>
       <c r="F60">
-        <v>0.1610121224873818</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.07277901129518821</v>
+      </c>
+      <c r="G60">
+        <v>-0.02840975082755663</v>
+      </c>
+      <c r="H60">
+        <v>-0.3639986803120827</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02118980619629605</v>
+        <v>0.01749838645840282</v>
       </c>
       <c r="C61">
-        <v>-0.009914222234638247</v>
+        <v>0.008819270115647168</v>
       </c>
       <c r="D61">
-        <v>0.04104480267292072</v>
+        <v>-0.05928188645585851</v>
       </c>
       <c r="E61">
-        <v>-0.01521281461494138</v>
+        <v>-0.003022229396546607</v>
       </c>
       <c r="F61">
-        <v>0.01585892160600042</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.0191521494630479</v>
+      </c>
+      <c r="G61">
+        <v>-0.02230492927842273</v>
+      </c>
+      <c r="H61">
+        <v>-0.06064336266536927</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01191180470191644</v>
+        <v>0.008356468781819589</v>
       </c>
       <c r="C63">
-        <v>-0.004802822296048358</v>
+        <v>-0.0028543147018437</v>
       </c>
       <c r="D63">
-        <v>0.03121080222793105</v>
+        <v>-0.02398695444753445</v>
       </c>
       <c r="E63">
-        <v>-0.01116308744837967</v>
+        <v>-0.006278087123519251</v>
       </c>
       <c r="F63">
-        <v>0.01002772087237128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.006347379961276859</v>
+      </c>
+      <c r="G63">
+        <v>-0.01580780861715845</v>
+      </c>
+      <c r="H63">
+        <v>-0.01582417285428798</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03468011834358932</v>
+        <v>0.03864890543731411</v>
       </c>
       <c r="C64">
-        <v>-0.0003678314119090715</v>
+        <v>0.007136495637438072</v>
       </c>
       <c r="D64">
-        <v>0.03144387861749453</v>
+        <v>-0.03930652516905846</v>
       </c>
       <c r="E64">
-        <v>-0.02340864956315309</v>
+        <v>-0.01544525567838527</v>
       </c>
       <c r="F64">
-        <v>0.02464917179880719</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.005186105135355768</v>
+      </c>
+      <c r="G64">
+        <v>0.009193075231720214</v>
+      </c>
+      <c r="H64">
+        <v>-0.05431489188170481</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03566403983701588</v>
+        <v>0.04015962650933918</v>
       </c>
       <c r="C65">
-        <v>-0.01021327065198121</v>
+        <v>0.001104790518755627</v>
       </c>
       <c r="D65">
-        <v>0.03009615181443183</v>
+        <v>-0.07419038320192065</v>
       </c>
       <c r="E65">
-        <v>-0.02676119798837774</v>
+        <v>-0.008405895732768074</v>
       </c>
       <c r="F65">
-        <v>0.00151183665903405</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.04330601165265884</v>
+      </c>
+      <c r="G65">
+        <v>-0.0009531143286467947</v>
+      </c>
+      <c r="H65">
+        <v>-0.07099144107510386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03392793793707438</v>
+        <v>0.01960774668809327</v>
       </c>
       <c r="C66">
-        <v>-0.028665112495821</v>
+        <v>0.01283613772656214</v>
       </c>
       <c r="D66">
-        <v>0.05934011727212348</v>
+        <v>-0.1126967070924717</v>
       </c>
       <c r="E66">
-        <v>-0.04984187683433666</v>
+        <v>0.006656856009949806</v>
       </c>
       <c r="F66">
-        <v>0.02831983740451284</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03743216473851874</v>
+      </c>
+      <c r="G66">
+        <v>-0.03106192222001128</v>
+      </c>
+      <c r="H66">
+        <v>-0.08261133141040035</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01998784697609706</v>
+        <v>0.04844729458275796</v>
       </c>
       <c r="C67">
-        <v>-0.01402151265040872</v>
+        <v>0.01607542188698951</v>
       </c>
       <c r="D67">
-        <v>-0.009150900149751473</v>
+        <v>-0.01824835716953897</v>
       </c>
       <c r="E67">
-        <v>0.01355467740410737</v>
+        <v>0.0008102270042870872</v>
       </c>
       <c r="F67">
-        <v>0.02269073350799931</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01891659796087181</v>
+      </c>
+      <c r="G67">
+        <v>-0.01298822720555984</v>
+      </c>
+      <c r="H67">
+        <v>-0.03906454380475047</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07159020923065866</v>
+        <v>0.1884621447705012</v>
       </c>
       <c r="C68">
-        <v>-0.02053137646784342</v>
+        <v>-0.02148279163947522</v>
       </c>
       <c r="D68">
-        <v>-0.1801226168611753</v>
+        <v>0.2171986572957756</v>
       </c>
       <c r="E68">
-        <v>0.06609279824580316</v>
+        <v>0.01073793776260627</v>
       </c>
       <c r="F68">
-        <v>0.07940540151672104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.04593971995806244</v>
+      </c>
+      <c r="G68">
+        <v>-0.0269973000579318</v>
+      </c>
+      <c r="H68">
+        <v>0.04671632127659891</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06213807757246929</v>
+        <v>0.06160535560901683</v>
       </c>
       <c r="C69">
-        <v>-0.03425873800866826</v>
+        <v>0.02535702748250943</v>
       </c>
       <c r="D69">
-        <v>0.01072066483121786</v>
+        <v>-0.05050002297417531</v>
       </c>
       <c r="E69">
-        <v>-0.03702848894823818</v>
+        <v>-0.005194615319755295</v>
       </c>
       <c r="F69">
-        <v>0.008965991724626482</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02861491711257086</v>
+      </c>
+      <c r="G69">
+        <v>0.008549229881684946</v>
+      </c>
+      <c r="H69">
+        <v>-0.01184834265018524</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07872796019345282</v>
+        <v>0.1705802652929159</v>
       </c>
       <c r="C71">
-        <v>-0.02790617805702772</v>
+        <v>-0.009585439169786925</v>
       </c>
       <c r="D71">
-        <v>-0.1950643163098225</v>
+        <v>0.1751513903575001</v>
       </c>
       <c r="E71">
-        <v>0.1175520188939814</v>
+        <v>0.01460631028326396</v>
       </c>
       <c r="F71">
-        <v>0.0853633119190421</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.05597011874969615</v>
+      </c>
+      <c r="G71">
+        <v>-0.03198612546855821</v>
+      </c>
+      <c r="H71">
+        <v>0.02077819050880244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1004704166094196</v>
+        <v>0.06866146454351259</v>
       </c>
       <c r="C72">
-        <v>-0.06829609573782482</v>
+        <v>0.03350784876171747</v>
       </c>
       <c r="D72">
-        <v>0.0525282036023333</v>
+        <v>-0.08946079378783318</v>
       </c>
       <c r="E72">
-        <v>-0.0917947063644676</v>
+        <v>0.01371676010286749</v>
       </c>
       <c r="F72">
-        <v>0.06871106443511588</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.07050007031717305</v>
+      </c>
+      <c r="G72">
+        <v>-0.02554592765569742</v>
+      </c>
+      <c r="H72">
+        <v>-0.1166178199672329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1880361051302492</v>
+        <v>0.2680490879720314</v>
       </c>
       <c r="C73">
-        <v>-0.1707681391881854</v>
+        <v>0.03246764417547732</v>
       </c>
       <c r="D73">
-        <v>-0.01937411496158734</v>
+        <v>-0.1156121297536285</v>
       </c>
       <c r="E73">
-        <v>0.05632057408970408</v>
+        <v>0.09077981470396485</v>
       </c>
       <c r="F73">
-        <v>0.2001399720174152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.08637599146345089</v>
+      </c>
+      <c r="G73">
+        <v>-0.04326092804049082</v>
+      </c>
+      <c r="H73">
+        <v>-0.4611348195585505</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1252150460201317</v>
+        <v>0.1097129429334825</v>
       </c>
       <c r="C74">
-        <v>-0.06601830895057231</v>
+        <v>0.04473309226732852</v>
       </c>
       <c r="D74">
-        <v>0.01553647944249024</v>
+        <v>-0.1223363760410957</v>
       </c>
       <c r="E74">
-        <v>-0.05180679172151583</v>
+        <v>-0.01267352946252747</v>
       </c>
       <c r="F74">
-        <v>-0.0749703870229194</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.0429379292992756</v>
+      </c>
+      <c r="G74">
+        <v>0.03801330436429252</v>
+      </c>
+      <c r="H74">
+        <v>0.0311697249095183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2139834113839195</v>
+        <v>0.2120953803218453</v>
       </c>
       <c r="C75">
-        <v>-0.1268128408426358</v>
+        <v>0.0822431692378723</v>
       </c>
       <c r="D75">
-        <v>-0.001383218352194646</v>
+        <v>-0.1891074414351478</v>
       </c>
       <c r="E75">
-        <v>-0.1547204583966046</v>
+        <v>-0.009604911257791849</v>
       </c>
       <c r="F75">
-        <v>-0.1134189769262042</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.0997346106474527</v>
+      </c>
+      <c r="G75">
+        <v>0.09742182399198666</v>
+      </c>
+      <c r="H75">
+        <v>0.1457214720279078</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2602227634277672</v>
+        <v>0.1708794308928532</v>
       </c>
       <c r="C76">
-        <v>-0.1102360469880955</v>
+        <v>0.0752921131994654</v>
       </c>
       <c r="D76">
-        <v>0.005468482582137333</v>
+        <v>-0.1841461052474781</v>
       </c>
       <c r="E76">
-        <v>-0.1826512651906198</v>
+        <v>-0.0471219315507181</v>
       </c>
       <c r="F76">
-        <v>-0.201897654049543</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.08932408043569161</v>
+      </c>
+      <c r="G76">
+        <v>0.08731368754822351</v>
+      </c>
+      <c r="H76">
+        <v>0.1275551978636654</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1007944819906816</v>
+        <v>0.0597806922586359</v>
       </c>
       <c r="C77">
-        <v>-0.06623024521747113</v>
+        <v>0.007475244803873586</v>
       </c>
       <c r="D77">
-        <v>0.1314137093754934</v>
+        <v>-0.08664883732674096</v>
       </c>
       <c r="E77">
-        <v>0.007941855083061498</v>
+        <v>0.01811390615683568</v>
       </c>
       <c r="F77">
-        <v>0.1343190856469947</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.02939575327238412</v>
+      </c>
+      <c r="G77">
+        <v>-0.06906712934329197</v>
+      </c>
+      <c r="H77">
+        <v>-0.03153336518738943</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0618399566604837</v>
+        <v>0.03396319728585019</v>
       </c>
       <c r="C78">
-        <v>-0.0257290426295928</v>
+        <v>0.01065560751063662</v>
       </c>
       <c r="D78">
-        <v>0.1132636189056706</v>
+        <v>-0.07174844257339794</v>
       </c>
       <c r="E78">
-        <v>-0.04646087343876915</v>
+        <v>-0.005383476993481169</v>
       </c>
       <c r="F78">
-        <v>0.07740236110234788</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.01305333071443144</v>
+      </c>
+      <c r="G78">
+        <v>-0.05697392893199892</v>
+      </c>
+      <c r="H78">
+        <v>-0.09785650945509462</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.5155391735561495</v>
+        <v>0.1150673767460268</v>
       </c>
       <c r="C80">
-        <v>0.8385513995884377</v>
+        <v>0.02200070632495062</v>
       </c>
       <c r="D80">
-        <v>0.07665713376071409</v>
+        <v>-0.09292902674248989</v>
       </c>
       <c r="E80">
-        <v>0.02853410906265798</v>
+        <v>-0.9135193439769579</v>
       </c>
       <c r="F80">
-        <v>0.04289105694375993</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.2781469545894448</v>
+      </c>
+      <c r="G80">
+        <v>-0.1816162514126521</v>
+      </c>
+      <c r="H80">
+        <v>-0.009267039748043687</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.168313716438807</v>
+        <v>0.1385777442244605</v>
       </c>
       <c r="C81">
-        <v>-0.08568893766581749</v>
+        <v>0.05259261463450685</v>
       </c>
       <c r="D81">
-        <v>-0.007575399759059574</v>
+        <v>-0.1235585315949946</v>
       </c>
       <c r="E81">
-        <v>-0.1239031645718901</v>
+        <v>-0.01674763415326087</v>
       </c>
       <c r="F81">
-        <v>-0.1131482501405881</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.06148041717470334</v>
+      </c>
+      <c r="G81">
+        <v>0.05697197058101301</v>
+      </c>
+      <c r="H81">
+        <v>0.08400399031335735</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03166712370543799</v>
+        <v>0.03027369105490866</v>
       </c>
       <c r="C83">
-        <v>-0.02343591679511231</v>
+        <v>0.003483498174851185</v>
       </c>
       <c r="D83">
-        <v>0.03229768984332788</v>
+        <v>-0.02697096361364985</v>
       </c>
       <c r="E83">
-        <v>0.005469491648657497</v>
+        <v>0.006741438250908198</v>
       </c>
       <c r="F83">
-        <v>0.05878766019468188</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>2.953878973789219e-05</v>
+      </c>
+      <c r="G83">
+        <v>-0.03890833385291417</v>
+      </c>
+      <c r="H83">
+        <v>-0.04620697865052312</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2357756894347624</v>
+        <v>0.2023286902799888</v>
       </c>
       <c r="C85">
-        <v>-0.1237195654485459</v>
+        <v>0.06832225538121893</v>
       </c>
       <c r="D85">
-        <v>0.005058743989320624</v>
+        <v>-0.1935796775148582</v>
       </c>
       <c r="E85">
-        <v>-0.1369111512350427</v>
+        <v>-0.009459306754520532</v>
       </c>
       <c r="F85">
-        <v>-0.1509172564737411</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.09189306983126629</v>
+      </c>
+      <c r="G85">
+        <v>0.1257641287832175</v>
+      </c>
+      <c r="H85">
+        <v>0.0704199996485623</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.006259488517870391</v>
+        <v>0.01708520155309403</v>
       </c>
       <c r="C86">
-        <v>0.003490554143462843</v>
+        <v>0.001028407266742889</v>
       </c>
       <c r="D86">
-        <v>0.07351329672771875</v>
+        <v>-0.03931714302303752</v>
       </c>
       <c r="E86">
-        <v>-0.00943515324310964</v>
+        <v>-0.007265858275395544</v>
       </c>
       <c r="F86">
-        <v>0.049305185205026</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.01109511690066491</v>
+      </c>
+      <c r="G86">
+        <v>-0.03761119918844156</v>
+      </c>
+      <c r="H86">
+        <v>-0.08794158343586522</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03642897790208306</v>
+        <v>0.01854718417786389</v>
       </c>
       <c r="C87">
-        <v>-0.01791863578891428</v>
+        <v>0.0017725980968408</v>
       </c>
       <c r="D87">
-        <v>0.03709433793150192</v>
+        <v>-0.0488342354876808</v>
       </c>
       <c r="E87">
-        <v>-0.006871859364624353</v>
+        <v>0.003122765190249914</v>
       </c>
       <c r="F87">
-        <v>0.106253771195645</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.0001819947019231598</v>
+      </c>
+      <c r="G87">
+        <v>-0.07359105547950028</v>
+      </c>
+      <c r="H87">
+        <v>-0.08603717369435125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01997890618031774</v>
+        <v>0.04081010944478087</v>
       </c>
       <c r="C88">
-        <v>0.005147609102021271</v>
+        <v>-0.01285790354210894</v>
       </c>
       <c r="D88">
-        <v>-0.007030807686800524</v>
+        <v>-0.02037966366314404</v>
       </c>
       <c r="E88">
-        <v>-0.01662029318350513</v>
+        <v>-0.01950962043604556</v>
       </c>
       <c r="F88">
-        <v>-0.01469584795312725</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01557828413632913</v>
+      </c>
+      <c r="G88">
+        <v>0.002423025820035657</v>
+      </c>
+      <c r="H88">
+        <v>-0.01537656044796322</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.107775715188126</v>
+        <v>0.2947216457985269</v>
       </c>
       <c r="C89">
-        <v>-0.04317679750718064</v>
+        <v>-0.01960751943771056</v>
       </c>
       <c r="D89">
-        <v>-0.3114655303694083</v>
+        <v>0.3178996995596875</v>
       </c>
       <c r="E89">
-        <v>0.1142952102281426</v>
+        <v>0.01253890947953284</v>
       </c>
       <c r="F89">
-        <v>0.1072334476422007</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02019749143608538</v>
+      </c>
+      <c r="G89">
+        <v>0.02144480346497429</v>
+      </c>
+      <c r="H89">
+        <v>-0.009732959557036781</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09418736575960586</v>
+        <v>0.2422645708676146</v>
       </c>
       <c r="C90">
-        <v>-0.01575616154409881</v>
+        <v>-0.01771729509089322</v>
       </c>
       <c r="D90">
-        <v>-0.3353355149639787</v>
+        <v>0.2869666331089052</v>
       </c>
       <c r="E90">
-        <v>0.1393473031166916</v>
+        <v>0.005155746676933021</v>
       </c>
       <c r="F90">
-        <v>0.05505833405303187</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.05915736330036598</v>
+      </c>
+      <c r="G90">
+        <v>0.004934968432151708</v>
+      </c>
+      <c r="H90">
+        <v>0.05071186015914134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2687834037147996</v>
+        <v>0.2118679133308588</v>
       </c>
       <c r="C91">
-        <v>-0.1623774944705555</v>
+        <v>0.0784970224717572</v>
       </c>
       <c r="D91">
-        <v>0.006202371053331143</v>
+        <v>-0.1757696487639144</v>
       </c>
       <c r="E91">
-        <v>-0.1347404979402162</v>
+        <v>0.002266137425009157</v>
       </c>
       <c r="F91">
-        <v>-0.2409246259959675</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.08422513896295251</v>
+      </c>
+      <c r="G91">
+        <v>0.1175147985507143</v>
+      </c>
+      <c r="H91">
+        <v>0.1646458814966506</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1637251208731531</v>
+        <v>0.2731585396517298</v>
       </c>
       <c r="C92">
-        <v>-0.06017632049507923</v>
+        <v>0.04353288404963199</v>
       </c>
       <c r="D92">
-        <v>-0.4458674957232511</v>
+        <v>0.209504466611063</v>
       </c>
       <c r="E92">
-        <v>-0.002950451449186578</v>
+        <v>-0.006553632888801388</v>
       </c>
       <c r="F92">
-        <v>-0.02963713384665407</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.00916905569953776</v>
+      </c>
+      <c r="G92">
+        <v>-0.02714794086248306</v>
+      </c>
+      <c r="H92">
+        <v>0.1296804240705696</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09449504445409156</v>
+        <v>0.2738247290271748</v>
       </c>
       <c r="C93">
-        <v>-0.05303300140455327</v>
+        <v>-0.00820530061229586</v>
       </c>
       <c r="D93">
-        <v>-0.401454234067515</v>
+        <v>0.2955750718163015</v>
       </c>
       <c r="E93">
-        <v>0.1861290077863809</v>
+        <v>0.0333762077314015</v>
       </c>
       <c r="F93">
-        <v>0.06472420371079682</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.05262083423277557</v>
+      </c>
+      <c r="G93">
+        <v>0.0120755604570022</v>
+      </c>
+      <c r="H93">
+        <v>-0.006529193370861252</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.260455541660144</v>
+        <v>0.2589541851230499</v>
       </c>
       <c r="C94">
-        <v>-0.1660239466230247</v>
+        <v>0.07451960739479081</v>
       </c>
       <c r="D94">
-        <v>-0.02305545109388381</v>
+        <v>-0.1920108835251136</v>
       </c>
       <c r="E94">
-        <v>-0.2317702037422064</v>
+        <v>0.005316295832316064</v>
       </c>
       <c r="F94">
-        <v>-0.1858374487017388</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2041059205011532</v>
+      </c>
+      <c r="G94">
+        <v>0.2016131138837742</v>
+      </c>
+      <c r="H94">
+        <v>0.3890446379273358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.02530804992781415</v>
+        <v>0.04132172923861272</v>
       </c>
       <c r="C95">
-        <v>-0.08755967336289516</v>
+        <v>0.0278298809986804</v>
       </c>
       <c r="D95">
-        <v>0.06498597075202363</v>
+        <v>-0.09173846806323885</v>
       </c>
       <c r="E95">
-        <v>-0.008429468874732822</v>
+        <v>0.08185411537281966</v>
       </c>
       <c r="F95">
-        <v>0.01743068960824532</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.01212007836480839</v>
+      </c>
+      <c r="G95">
+        <v>-0.0362856095493762</v>
+      </c>
+      <c r="H95">
+        <v>-0.05366977589220726</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1489299858563706</v>
+        <v>0.1890573292334926</v>
       </c>
       <c r="C98">
-        <v>-0.1095154133195034</v>
+        <v>0.04935406992350008</v>
       </c>
       <c r="D98">
-        <v>-0.02351510377325385</v>
+        <v>-0.05710324673478213</v>
       </c>
       <c r="E98">
-        <v>0.06404123500598539</v>
+        <v>0.06300737268258234</v>
       </c>
       <c r="F98">
-        <v>0.1580776581302998</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.02354973915550872</v>
+      </c>
+      <c r="G98">
+        <v>-0.06739680306577335</v>
+      </c>
+      <c r="H98">
+        <v>-0.3303248098673706</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.007948712202184714</v>
+        <v>0.01128135962294075</v>
       </c>
       <c r="C101">
-        <v>0.001818037966554437</v>
+        <v>-0.001740706030717031</v>
       </c>
       <c r="D101">
-        <v>0.06053831184491476</v>
+        <v>-0.01868113851613162</v>
       </c>
       <c r="E101">
-        <v>-0.03982419905413025</v>
+        <v>0.001488450919325812</v>
       </c>
       <c r="F101">
-        <v>0.1711953517859287</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.0003802885173958502</v>
+      </c>
+      <c r="G101">
+        <v>-0.09881426515613623</v>
+      </c>
+      <c r="H101">
+        <v>0.01023959073186304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1078549413344476</v>
+        <v>0.09962266467414066</v>
       </c>
       <c r="C102">
-        <v>-0.05404475884643614</v>
+        <v>0.02596622632183237</v>
       </c>
       <c r="D102">
-        <v>0.0006851511869460497</v>
+        <v>-0.09151644623152433</v>
       </c>
       <c r="E102">
-        <v>-0.07223432351390426</v>
+        <v>-0.00823923316031394</v>
       </c>
       <c r="F102">
-        <v>-0.09608839955545363</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.04898726492261291</v>
+      </c>
+      <c r="G102">
+        <v>0.05539239477596898</v>
+      </c>
+      <c r="H102">
+        <v>0.06321803921109401</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04220804444359276</v>
+        <v>0.01328013182485621</v>
       </c>
       <c r="C103">
-        <v>-0.00798918314461051</v>
+        <v>0.004863729992026685</v>
       </c>
       <c r="D103">
-        <v>0.02232285375204845</v>
+        <v>-0.01759444018396285</v>
       </c>
       <c r="E103">
-        <v>-0.04237671599464021</v>
+        <v>-0.01290988228093003</v>
       </c>
       <c r="F103">
-        <v>-0.006080892362707787</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.004430082751979392</v>
+      </c>
+      <c r="G103">
+        <v>-0.005249978486086619</v>
+      </c>
+      <c r="H103">
+        <v>0.01277388234898512</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1303306606985479</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9693728720968867</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.1210368186416808</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02940512483419577</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1262890198752887</v>
+      </c>
+      <c r="G104">
+        <v>-0.01103303938922279</v>
+      </c>
+      <c r="H104">
+        <v>0.05235089327754975</v>
       </c>
     </row>
   </sheetData>
